--- a/biology/Botanique/Evolvulus_sericeus/Evolvulus_sericeus.xlsx
+++ b/biology/Botanique/Evolvulus_sericeus/Evolvulus_sericeus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Evolvulus sericeus est une espèce de plantes de la famille des Convolvulaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Evolvulus sericeus a pour synonyme homotypique selon World Checklist of Selected Plant Families (WCSP)                (22 février 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Evolvulus sericeus a pour synonyme homotypique selon World Checklist of Selected Plant Families (WCSP)                (22 février 2021) :
 Evolvulus alsinoides var. sericeus (Sw.) Kuntze, Revis. Gen. Pl. 2: 441 (1891), nom. illeg.</t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Liste des formes et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Plants of the World online (POWO)                (22 février 2021)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (22 février 2021) :
 variété Evolvulus sericeus var. elongatus (Choisy) O'Donell ex Moldenke (1940)
 forme Evolvulus sericeus f. pedunculatus Ooststr. (1934)
 variété Evolvulus sericeus var. sericeus
-Selon Tropicos                                           (22 février 2021)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (22 février 2021) (Attention liste brute contenant possiblement des synonymes) :
 variété Evolvulus sericeus var. angustifolius Hoehne
 variété Evolvulus sericeus var. commersoni Pers.
 variété Evolvulus sericeus var. discolor (Benth.) A. Gray
